--- a/protocol/错误码.xlsx
+++ b/protocol/错误码.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>错误码</t>
   </si>
@@ -99,6 +99,24 @@
   </si>
   <si>
     <t>名字特殊字符</t>
+  </si>
+  <si>
+    <t>NO_MONEY</t>
+  </si>
+  <si>
+    <t>没有钱</t>
+  </si>
+  <si>
+    <t>GAME_CREATE_ERROR</t>
+  </si>
+  <si>
+    <t>创建游戏失败</t>
+  </si>
+  <si>
+    <t>GAME_JOIN_ERROR</t>
+  </si>
+  <si>
+    <t>加入游戏失败</t>
   </si>
 </sst>
 </file>
@@ -303,6 +321,39 @@
         <v>28</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
